--- a/doc/bom.xlsx
+++ b/doc/bom.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\User\Desktop\Mysensor\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\WS2012\Tdown\github\MYNRF24\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -129,12 +129,38 @@
         </r>
       </text>
     </comment>
+    <comment ref="B28" authorId="0" shapeId="0" xr:uid="{25169CCE-45B2-4E42-B938-0522BCC5BA93}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Administrator:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+可以使用1M,此电阻仅为门磁类的二元传感器接入</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="126">
   <si>
     <t>ID</t>
   </si>
@@ -595,6 +621,22 @@
   </si>
   <si>
     <t>核心328p完整需要4个0.1uf电容，2个10K电阻</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>2M</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>R5,R17</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">2M 0603±5% </t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>非</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -2066,8 +2108,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30:F31"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2698,6 +2740,29 @@
       </c>
       <c r="G27" t="s">
         <v>69</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>122</v>
+      </c>
+      <c r="C28" t="s">
+        <v>123</v>
+      </c>
+      <c r="D28" s="2">
+        <v>603</v>
+      </c>
+      <c r="E28">
+        <v>2</v>
+      </c>
+      <c r="F28" t="s">
+        <v>124</v>
+      </c>
+      <c r="G28" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">

--- a/doc/bom.xlsx
+++ b/doc/bom.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\WS2012\Tdown\github\MYNRF24\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\User\Desktop\Mysensor\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -160,7 +160,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="128">
   <si>
     <t>ID</t>
   </si>
@@ -637,6 +637,14 @@
   </si>
   <si>
     <t>非</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>网关请购买一片</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>NRF24L01+8P</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1806,6 +1814,50 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>110</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>3072847</xdr:colOff>
+      <xdr:row>124</xdr:row>
+      <xdr:rowOff>53195</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="图片 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B518510E-B528-4DD2-A47C-68A3D925B390}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1830457" y="20043914"/>
+          <a:ext cx="3072847" cy="2604238"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -2106,10 +2158,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G103"/>
+  <dimension ref="A1:G114"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView tabSelected="1" topLeftCell="A103" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H125" sqref="H125"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3273,6 +3325,16 @@
     <row r="103" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>117</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A111" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A114" t="s">
+        <v>127</v>
       </c>
     </row>
   </sheetData>
